--- a/robotics/output/generated_queries_org.xlsx
+++ b/robotics/output/generated_queries_org.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\projects\llm-query-pipeline\robotics\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853BBA8F-EF0F-4078-B10B-E8F81F548FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DC5323-0DA6-45DD-AE7F-FFFA89927F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-5235" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>Labels</t>
-  </si>
-  <si>
-    <t>LLM-Generated SPARQL Query</t>
   </si>
   <si>
     <t>Template</t>
@@ -903,6 +900,9 @@
   </si>
   <si>
     <t xml:space="preserve"> The "InverseName" of "Controls" is "IsControlledBy".</t>
+  </si>
+  <si>
+    <t>Ground Truth SPARQL Query</t>
   </si>
 </sst>
 </file>
@@ -1324,15 +1324,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="61.109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="54" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="5" max="5" width="49" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="51.77734375" style="3" customWidth="1"/>
   </cols>
@@ -1345,16 +1345,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="388.8" x14ac:dyDescent="0.3">
@@ -1362,22 +1362,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="288" x14ac:dyDescent="0.3">
@@ -1385,19 +1385,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
@@ -1405,19 +1405,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
@@ -1425,19 +1425,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="259.2" x14ac:dyDescent="0.3">
@@ -1445,19 +1445,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
@@ -1465,19 +1465,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="345.6" x14ac:dyDescent="0.3">
@@ -1485,19 +1485,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
@@ -1505,19 +1505,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -1525,19 +1525,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
@@ -1545,19 +1545,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -1565,22 +1565,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" t="s">
         <v>34</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="316.8" x14ac:dyDescent="0.3">
@@ -1588,22 +1588,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" t="s">
         <v>38</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
@@ -1611,22 +1611,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" t="s">
         <v>42</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -1634,22 +1634,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="259.2" x14ac:dyDescent="0.3">
@@ -1657,19 +1657,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
@@ -1677,22 +1677,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" t="s">
         <v>52</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -1700,19 +1700,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -1720,19 +1720,19 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -1740,19 +1740,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
@@ -1760,19 +1760,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -1780,19 +1780,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
@@ -1800,19 +1800,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="316.8" x14ac:dyDescent="0.3">
@@ -1820,19 +1820,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="331.2" x14ac:dyDescent="0.3">
@@ -1840,19 +1840,19 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
@@ -1860,19 +1860,19 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
